--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rth\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6B278C-18AB-4933-8EF8-EED9071E932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF6E962-94AC-4690-BC2D-F6B342A8A014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>node.js</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>PHP</t>
+  </si>
+  <si>
+    <t>Python</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -136,9 +139,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>PHP vs Node.js vs .NET Core vs Rust req/s</a:t>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Requests per second (higher is better)</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -250,19 +254,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$5</c:f>
+              <c:f>Feuil1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>PHP</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>node.js</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>.NET Core</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -270,20 +277,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$5</c:f>
+              <c:f>Feuil1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1227</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2076</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7417</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>17887</c:v>
                 </c:pt>
               </c:numCache>
@@ -1043,7 +1053,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1389,13 +1399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1412,25 +1422,33 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2076</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>7417</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>7417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>17887</v>
       </c>
     </row>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF6E962-94AC-4690-BC2D-F6B342A8A014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E81E3-2498-40E0-BC2D-129A3B5791AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>node.js</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -254,9 +257,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$6</c:f>
+              <c:f>Feuil1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>PHP</c:v>
                 </c:pt>
@@ -267,9 +270,12 @@
                   <c:v>node.js</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>.NET Core</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -277,10 +283,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$6</c:f>
+              <c:f>Feuil1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1227</c:v>
                 </c:pt>
@@ -291,9 +297,12 @@
                   <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4526</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7417</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>17887</c:v>
                 </c:pt>
               </c:numCache>
@@ -1053,7 +1062,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1399,20 +1408,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1437,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1436,19 +1445,27 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>7417</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>17887</v>
       </c>
     </row>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E81E3-2498-40E0-BC2D-129A3B5791AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B216DA32-03E9-4292-BA0C-F18C81D5AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>node.js</t>
-  </si>
-  <si>
-    <t>.NET Core</t>
   </si>
   <si>
     <t>Rust</t>
@@ -57,6 +54,12 @@
   </si>
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>C++</t>
   </si>
 </sst>
 </file>
@@ -257,9 +260,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$7</c:f>
+              <c:f>Feuil1!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>PHP</c:v>
                 </c:pt>
@@ -273,9 +276,12 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>.NET Core</c:v>
+                  <c:v>C++</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -283,10 +289,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$7</c:f>
+              <c:f>Feuil1!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1227</c:v>
                 </c:pt>
@@ -300,9 +306,12 @@
                   <c:v>4526</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5652</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7417</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>17887</c:v>
                 </c:pt>
               </c:numCache>
@@ -1062,7 +1071,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1408,9 +1417,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1418,12 +1427,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1227</v>
@@ -1431,7 +1440,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1935</v>
@@ -1447,7 +1456,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4526</v>
@@ -1455,17 +1464,25 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>7417</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7">
+        <v>7417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>17887</v>
       </c>
     </row>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B216DA32-03E9-4292-BA0C-F18C81D5AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9429CD4-33A8-4CFE-9076-1D2EBA9AD319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="17280" windowHeight="11858" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>node.js</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>C++</t>
+  </si>
+  <si>
+    <t>Go</t>
   </si>
 </sst>
 </file>
@@ -260,9 +263,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$8</c:f>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>PHP</c:v>
                 </c:pt>
@@ -282,6 +285,9 @@
                   <c:v>C#</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -289,10 +295,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$8</c:f>
+              <c:f>Feuil1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1227</c:v>
                 </c:pt>
@@ -312,6 +318,9 @@
                   <c:v>7417</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>12049</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>17887</c:v>
                 </c:pt>
               </c:numCache>
@@ -1071,7 +1080,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1417,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1480,9 +1489,17 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>12049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>17887</v>
       </c>
     </row>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9429CD4-33A8-4CFE-9076-1D2EBA9AD319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0511EDCB-0CA3-439B-9055-77C84F17DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="17280" windowHeight="11858" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
@@ -270,10 +270,10 @@
                   <c:v>PHP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Python</c:v>
+                  <c:v>node.js</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>node.js</c:v>
+                  <c:v>Python</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Java</c:v>
@@ -303,10 +303,10 @@
                   <c:v>1227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1935</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2076</c:v>
+                  <c:v>2112</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4526</c:v>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1449,18 +1449,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1935</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2076</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0511EDCB-0CA3-439B-9055-77C84F17DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A92AB3-7B15-4351-B509-DC8C8C5ACB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="17280" windowHeight="11858" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="6240" yWindow="1845" windowWidth="21600" windowHeight="12360" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
                   <c:v>PHP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>node.js</c:v>
+                  <c:v>Python</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Python</c:v>
+                  <c:v>node.js</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Java</c:v>
@@ -300,13 +300,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1227</c:v>
+                  <c:v>2065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2076</c:v>
+                  <c:v>2112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2112</c:v>
+                  <c:v>2267</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4526</c:v>
@@ -1429,41 +1429,41 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1227</v>
+        <v>2065</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>2076</v>
+      <c r="B4">
+        <v>2267</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>5652</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>7417</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>12049</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A92AB3-7B15-4351-B509-DC8C8C5ACB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ECAD96-48D5-446F-9626-63FB50E903F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1845" windowWidth="21600" windowHeight="12360" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>node.js</t>
   </si>
@@ -47,22 +47,25 @@
     <t>Request/second</t>
   </si>
   <si>
-    <t>PHP</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
     <t>Java</t>
   </si>
   <si>
-    <t>C#</t>
-  </si>
-  <si>
     <t>C++</t>
   </si>
   <si>
     <t>Go</t>
+  </si>
+  <si>
+    <t>C# - Controller</t>
+  </si>
+  <si>
+    <t>C# - Minimal API</t>
+  </si>
+  <si>
+    <t>PHP (CGI)</t>
   </si>
 </sst>
 </file>
@@ -263,31 +266,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$9</c:f>
+              <c:f>Feuil1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>PHP</c:v>
+                  <c:v>PHP (CGI)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>node.js</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Python</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>node.js</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>C++</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>C#</c:v>
+                  <c:v>C# - Controller</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>C# - Minimal API</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Go</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -295,33 +301,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$9</c:f>
+              <c:f>Feuil1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2065</c:v>
+                  <c:v>2072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2112</c:v>
+                  <c:v>2382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2267</c:v>
+                  <c:v>3235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4526</c:v>
+                  <c:v>4564</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5652</c:v>
+                  <c:v>5920</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7417</c:v>
+                  <c:v>6508</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12049</c:v>
+                  <c:v>7401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17887</c:v>
+                  <c:v>12694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,7 +1089,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1426,85 +1435,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>2065</v>
+      <c r="B5">
+        <v>4564</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2112</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5920</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2267</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6508</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>5652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>12049</v>
+        <v>7401</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>12694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>17887</v>
+      <c r="B10">
+        <v>18563</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B10">
+    <sortCondition ref="B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ECAD96-48D5-446F-9626-63FB50E903F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD07A36-C447-4DE5-9FE1-EC08A3EBFCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>node.js</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Java</t>
   </si>
   <si>
-    <t>C++</t>
-  </si>
-  <si>
     <t>Go</t>
   </si>
   <si>
@@ -66,6 +63,12 @@
   </si>
   <si>
     <t>PHP (CGI)</t>
+  </si>
+  <si>
+    <t>Java Minial API</t>
+  </si>
+  <si>
+    <t>C++ (*)</t>
   </si>
 </sst>
 </file>
@@ -266,9 +269,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$10</c:f>
+              <c:f>Feuil1!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>PHP (CGI)</c:v>
                 </c:pt>
@@ -279,21 +282,24 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Java Minial API</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Python</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>C++</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>C++ (*)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>C# - Controller</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>C# - Minimal API</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Go</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -301,10 +307,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$10</c:f>
+              <c:f>Feuil1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2072</c:v>
                 </c:pt>
@@ -315,21 +321,24 @@
                   <c:v>3235</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3805</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4564</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5920</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6508</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7401</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>12694</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>18563</c:v>
                 </c:pt>
               </c:numCache>
@@ -1089,7 +1098,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1435,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1450,7 +1459,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2072</v>
@@ -1474,55 +1483,63 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>4564</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5920</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>6508</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>7401</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>12694</v>
+        <v>7401</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>12694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>18563</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B10">
-    <sortCondition ref="B10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B11">
+    <sortCondition ref="B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\maxreq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD07A36-C447-4DE5-9FE1-EC08A3EBFCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA05915-1396-4479-B121-E08F9B91F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>node.js</t>
-  </si>
-  <si>
-    <t>Rust</t>
   </si>
   <si>
     <t>Request/second</t>
@@ -56,12 +53,6 @@
     <t>Go</t>
   </si>
   <si>
-    <t>C# - Controller</t>
-  </si>
-  <si>
-    <t>C# - Minimal API</t>
-  </si>
-  <si>
     <t>PHP (CGI)</t>
   </si>
   <si>
@@ -69,6 +60,21 @@
   </si>
   <si>
     <t>C++ (*)</t>
+  </si>
+  <si>
+    <t>Rust Actix</t>
+  </si>
+  <si>
+    <t>Rust Axum</t>
+  </si>
+  <si>
+    <t>C# - Minimal API .NET 9</t>
+  </si>
+  <si>
+    <t>C# - Controller .NET 9</t>
+  </si>
+  <si>
+    <t>Test date</t>
   </si>
 </sst>
 </file>
@@ -104,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,14 +204,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -269,77 +268,86 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$2:$A$11</c:f>
+              <c:f>Feuil1!$A$1:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Request/second</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>PHP (CGI)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>node.js</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Java Minial API</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>C# - Controller .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Python</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>C# - Minimal API .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>C++ (*)</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>C# - Controller</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>C# - Minimal API</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>Rust Axum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rust Actix</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Go</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$11</c:f>
+              <c:f>Feuil1!$B$1:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
                   <c:v>2072</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2382</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3235</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3805</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4564</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>5371</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5920</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6508</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12694</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>18563</c:v>
+                  <c:v>6028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,16 +1098,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1444,28 +1452,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2072</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1473,73 +1487,96 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3235</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>3805</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6">
+        <v>4500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>4564</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>5920</v>
+      <c r="B8">
+        <v>5371</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45920</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7401</v>
+        <v>5920</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>12694</v>
+        <v>6028</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45920</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>18563</v>
+        <v>6335</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>16596</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45920</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B11">
-    <sortCondition ref="B11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B12">
+    <sortCondition ref="B3:B12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA05915-1396-4479-B121-E08F9B91F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBBBF8F-19EF-4B57-A2C2-8A64DEAA0B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="1230" yWindow="1230" windowWidth="21600" windowHeight="12915" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>node.js</t>
   </si>
@@ -56,9 +56,6 @@
     <t>PHP (CGI)</t>
   </si>
   <si>
-    <t>Java Minial API</t>
-  </si>
-  <si>
     <t>C++ (*)</t>
   </si>
   <si>
@@ -75,6 +72,18 @@
   </si>
   <si>
     <t>Test date</t>
+  </si>
+  <si>
+    <t>Bun (Typescript)</t>
+  </si>
+  <si>
+    <t>no_db</t>
+  </si>
+  <si>
+    <t>Run each 5 time and keep the best one</t>
+  </si>
+  <si>
+    <t>Java Minimal API</t>
   </si>
 </sst>
 </file>
@@ -268,9 +277,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$1:$A$12</c:f>
+              <c:f>Feuil1!$A$1:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Request/second</c:v>
                 </c:pt>
@@ -281,41 +290,44 @@
                   <c:v>node.js</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C# - Controller .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C# - Minimal API .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C++ (*)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rust Axum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rust Actix</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Java Minial API</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>C# - Controller .NET 9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Python</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>C# - Minimal API .NET 9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>C++ (*)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Rust Axum</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>Rust Actix</c:v>
+                  <c:v>Bun (Typescript)</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Java Minimal API</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$1:$B$12</c:f>
+              <c:f>Feuil1!$B$1:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="1">
                   <c:v>2072</c:v>
                 </c:pt>
@@ -323,31 +335,34 @@
                   <c:v>2382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3235</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3805</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4500</c:v>
+                  <c:v>5371</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4564</c:v>
+                  <c:v>5920</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5371</c:v>
+                  <c:v>7939</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5920</c:v>
+                  <c:v>8233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6028</c:v>
+                  <c:v>9954</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6335</c:v>
+                  <c:v>10111</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,15 +1113,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1452,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,15 +1478,18 @@
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1497,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1487,96 +1505,142 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3235</v>
+        <v>3600</v>
+      </c>
+      <c r="C4">
+        <v>4287</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5371</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>3805</v>
+      <c r="B7">
+        <v>5920</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>4500</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45920</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7939</v>
+      </c>
+      <c r="C8">
+        <v>8904</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45921</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>4564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5371</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45920</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5920</v>
+        <v>8233</v>
+      </c>
+      <c r="C9">
+        <v>9277</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45921</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>6028</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45920</v>
+        <v>9954</v>
+      </c>
+      <c r="C10">
+        <v>32531</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45921</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>6335</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45920</v>
+        <v>10111</v>
+      </c>
+      <c r="C11">
+        <v>20252</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45921</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12">
         <v>16596</v>
       </c>
-      <c r="C12" s="1">
-        <v>45920</v>
+      <c r="C12">
+        <v>48785</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>32600</v>
+      </c>
+      <c r="C13">
+        <v>39167</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B12">
-    <sortCondition ref="B3:B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+    <sortCondition ref="B2:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBBBF8F-19EF-4B57-A2C2-8A64DEAA0B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88322B61-B5EC-4AC3-A3D3-07175D2F9B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1230" windowWidth="21600" windowHeight="12915" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ryzen 7" sheetId="1" r:id="rId1"/>
+    <sheet name="i7" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>node.js</t>
   </si>
@@ -84,6 +85,18 @@
   </si>
   <si>
     <t>Java Minimal API</t>
+  </si>
+  <si>
+    <t>Java Minimal API openjdk</t>
+  </si>
+  <si>
+    <t>Java openjdk</t>
+  </si>
+  <si>
+    <t>Java oracle 17</t>
+  </si>
+  <si>
+    <t>Jave Manimal API oracle 17</t>
   </si>
 </sst>
 </file>
@@ -142,7 +155,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -173,6 +186,13 @@
               <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
               <a:t>Requests per second (higher is better)</a:t>
             </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>AMD Ryzen 7 2700X 16 vCore</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
@@ -199,7 +219,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -277,7 +297,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$1:$A$13</c:f>
+              <c:f>'Ryzen 7'!$A$1:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -324,7 +344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$1:$B$13</c:f>
+              <c:f>'Ryzen 7'!$B$1:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -564,7 +584,644 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Requests per second (higher is better)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>11th Gen Intel(R) Core(TM) i7-11800H </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>16 vCore</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'i7'!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>C# - Controller .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C# - Minimal API .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java Minimal API openjdk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rust Axum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java openjdk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rust Actix</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Java oracle 17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bun (Typescript)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jave Manimal API oracle 17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PHP (CGI)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>node.js</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>C++ (*)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'i7'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64A9-4032-B8B4-81C2B9BD05ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'i7'!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>C# - Controller .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C# - Minimal API .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java Minimal API openjdk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rust Axum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java openjdk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rust Actix</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Java oracle 17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bun (Typescript)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jave Manimal API oracle 17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PHP (CGI)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>node.js</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>C++ (*)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'i7'!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21853</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-64A9-4032-B8B4-81C2B9BD05ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="169553376"/>
+        <c:axId val="169554336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="169553376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169554336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="169554336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169553376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent2">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent2">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent2">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="100000" t="100000"/>
+      </a:path>
+      <a:tileRect r="-100000" b="-100000"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1109,6 +1766,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1134,6 +2296,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEE114E-28E8-45A3-802D-52B491F9F4D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1469,16 +2674,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +2694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1497,7 +2702,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +2710,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1519,7 +2724,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1530,7 +2735,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +2746,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +2754,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1563,7 +2768,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +2782,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +2796,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1605,7 +2810,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +2824,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1633,7 +2838,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1646,4 +2851,195 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D309CC-6B37-4C27-9D09-BA240EF5EF8A}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3642</v>
+      </c>
+      <c r="C2">
+        <v>4770</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>4200</v>
+      </c>
+      <c r="C3">
+        <v>6097</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>5018</v>
+      </c>
+      <c r="C4">
+        <v>13324</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6369</v>
+      </c>
+      <c r="C5">
+        <v>6857</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>6789</v>
+      </c>
+      <c r="C6">
+        <v>9945</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7795</v>
+      </c>
+      <c r="C7">
+        <v>9242</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>8166</v>
+      </c>
+      <c r="C8">
+        <v>21700</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>12110</v>
+      </c>
+      <c r="C9">
+        <v>21853</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>14415</v>
+      </c>
+      <c r="C10">
+        <v>36995</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>15504</v>
+      </c>
+      <c r="C11">
+        <v>26043</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
+    <sortCondition ref="B2:B15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88322B61-B5EC-4AC3-A3D3-07175D2F9B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF825CB9-3D43-4609-91B2-7BF9FC28C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ryzen 7" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -219,7 +219,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -587,7 +587,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -657,7 +657,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2674,16 +2674,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2857,16 +2857,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D309CC-6B37-4C27-9D09-BA240EF5EF8A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3009,28 +3009,28 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF825CB9-3D43-4609-91B2-7BF9FC28C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9BA3F3-EDD9-4524-A656-84B7E0971DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13545" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ryzen 7" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>node.js</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Jave Manimal API oracle 17</t>
+  </si>
+  <si>
+    <t>C++ dragon</t>
+  </si>
+  <si>
+    <t>C++ asio CppServer</t>
   </si>
 </sst>
 </file>
@@ -297,9 +303,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ryzen 7'!$A$1:$A$13</c:f>
+              <c:f>'Ryzen 7'!$A$1:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Request/second</c:v>
                 </c:pt>
@@ -319,24 +325,27 @@
                   <c:v>C# - Minimal API .NET 9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>C++ (*)</c:v>
+                  <c:v>C++ dragon</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>C++ asio CppServer</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Rust Axum</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Rust Actix</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Bun (Typescript)</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Go</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Java Minimal API</c:v>
                 </c:pt>
               </c:strCache>
@@ -344,10 +353,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ryzen 7'!$B$1:$B$13</c:f>
+              <c:f>'Ryzen 7'!$B$1:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="1">
                   <c:v>2072</c:v>
                 </c:pt>
@@ -367,21 +376,24 @@
                   <c:v>5920</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>7084</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7939</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8233</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>9954</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>10111</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>16596</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>32600</c:v>
                 </c:pt>
               </c:numCache>
@@ -2283,7 +2295,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2672,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2760,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>5920</v>
@@ -2756,27 +2768,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>7939</v>
+        <v>7084</v>
       </c>
       <c r="C8">
-        <v>8904</v>
+        <v>10479</v>
       </c>
       <c r="D8" s="1">
-        <v>45921</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>8233</v>
+        <v>7939</v>
       </c>
       <c r="C9">
-        <v>9277</v>
+        <v>8904</v>
       </c>
       <c r="D9" s="1">
         <v>45921</v>
@@ -2784,13 +2796,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>9954</v>
+        <v>8233</v>
       </c>
       <c r="C10">
-        <v>32531</v>
+        <v>9277</v>
       </c>
       <c r="D10" s="1">
         <v>45921</v>
@@ -2798,13 +2810,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>10111</v>
+        <v>9954</v>
       </c>
       <c r="C11">
-        <v>20252</v>
+        <v>32531</v>
       </c>
       <c r="D11" s="1">
         <v>45921</v>
@@ -2812,13 +2824,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>16596</v>
+        <v>10111</v>
       </c>
       <c r="C12">
-        <v>48785</v>
+        <v>20252</v>
       </c>
       <c r="D12" s="1">
         <v>45921</v>
@@ -2826,26 +2838,40 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>32600</v>
+        <v>16596</v>
       </c>
       <c r="C13">
-        <v>39167</v>
+        <v>48785</v>
       </c>
       <c r="D13" s="1">
         <v>45921</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>32600</v>
+      </c>
+      <c r="C14">
+        <v>39167</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
-    <sortCondition ref="B2:B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
+    <sortCondition ref="B2:B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9BA3F3-EDD9-4524-A656-84B7E0971DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35095295-687E-4AE3-8717-77F0F2A86AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13545" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="2" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ryzen 7" sheetId="1" r:id="rId1"/>
     <sheet name="i7" sheetId="2" r:id="rId2"/>
+    <sheet name="OVH" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OVH!$A$3:$D$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>node.js</t>
   </si>
@@ -103,6 +107,69 @@
   </si>
   <si>
     <t>C++ asio CppServer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVH VPS-2 </t>
+  </si>
+  <si>
+    <t>6 vCore</t>
+  </si>
+  <si>
+    <t>12 Go RAM</t>
+  </si>
+  <si>
+    <t>100 Go SSD NVMe</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Environement</t>
+  </si>
+  <si>
+    <t>req/s</t>
+  </si>
+  <si>
+    <t>Java Graal Docker</t>
+  </si>
+  <si>
+    <t>1 Gbit/s illimitée</t>
+  </si>
+  <si>
+    <t>Java Azul Docker</t>
+  </si>
+  <si>
+    <t>Java Graal native</t>
+  </si>
+  <si>
+    <t>Java Azul native</t>
+  </si>
+  <si>
+    <t>Javamini Graal native</t>
+  </si>
+  <si>
+    <t>Java Temurin native</t>
+  </si>
+  <si>
+    <t>Java Temurin Docker</t>
+  </si>
+  <si>
+    <t>Javamini Temurin native</t>
+  </si>
+  <si>
+    <t>Javamini Azul native (1)</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Bun (Javascript)</t>
+  </si>
+  <si>
+    <t>PHP (Nginx + PHP-FPM)</t>
+  </si>
+  <si>
+    <t>Python (ASGI Uvicorn)</t>
   </si>
 </sst>
 </file>
@@ -1193,6 +1260,507 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400"/>
+              <a:t>Debian 6.1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400"/>
+              <a:t>Requests per second (higher is better)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1400"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400"/>
+              <a:t>OVH VPS 6 vCore 12 Go RAM SSD MVNe </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3027359307359308"/>
+          <c:y val="8.7863811092806152E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>OVH!$B$4:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Javamini Azul native (1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Python (ASGI Uvicorn)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java Temurin Docker</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java Graal Docker</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java Azul Docker</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Java Graal native</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PHP (Nginx + PHP-FPM)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Java Azul native</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Java Temurin native</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bun (Javascript)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Javamini Temurin native</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C# - Controller .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Javamini Graal native</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>C# - Minimal API .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Rust Actix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OVH!$D$4:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10967</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F956-4908-B573-FAC9977D3D45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="1507382463"/>
+        <c:axId val="1503208271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1507382463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503208271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1503208271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507382463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1273,6 +1841,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2279,6 +2887,576 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2351,6 +3529,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A2E2AC-BE44-2EC2-608F-9D832949CD0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2686,16 +3905,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EDF2E-1656-4DA5-843F-3F6E7E24D056}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2706,7 +3925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2714,7 +3933,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2722,7 +3941,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2736,7 +3955,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2747,7 +3966,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2758,7 +3977,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2766,7 +3985,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2780,7 +3999,7 @@
         <v>45933</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2794,7 +4013,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2808,7 +4027,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2822,7 +4041,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2836,7 +4055,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +4069,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2864,7 +4083,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2887,12 +4106,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2903,7 +4122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2917,7 +4136,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2931,7 +4150,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2945,7 +4164,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2957,7 +4176,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2971,7 +4190,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2983,7 +4202,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2997,7 +4216,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3009,7 +4228,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3021,7 +4240,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3035,28 +4254,28 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3068,4 +4287,247 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C568D5-A42A-4923-9916-9948BE1E3A2A}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>6442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>7229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>7798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>10496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>10967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>13093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>13620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>15669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>16203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>18095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>19303</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:D20" xr:uid="{09C568D5-A42A-4923-9916-9948BE1E3A2A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D20">
+      <sortCondition ref="D3:D20"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H20">
+    <sortCondition descending="1" ref="D4:D20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35095295-687E-4AE3-8717-77F0F2A86AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A738F7-05B0-4C6B-89C8-C315D9828224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="2" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="OVH" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OVH!$A$3:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OVH!$A$3:$D$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>node.js</t>
   </si>
@@ -171,13 +171,33 @@
   <si>
     <t>Python (ASGI Uvicorn)</t>
   </si>
+  <si>
+    <t>NodeJS (pm2 + nginx)</t>
+  </si>
+  <si>
+    <t>Fastest/line</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -193,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -201,13 +221,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,11 +1475,11 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>OVH!$B$4:$B$20</c:f>
+              <c:f>OVH!$B$5:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Javamini Azul native (1)</c:v>
+                  <c:v>NodeJS (pm2 + nginx)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Python (ASGI Uvicorn)</c:v>
@@ -1497,67 +1534,215 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OVH!$D$4:$D$20</c:f>
+              <c:f>OVH!$C$5:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3159</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4892</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5558</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5702</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6131</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6442</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7229</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7798</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10496</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10967</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13093</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13620</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15669</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16203</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18095</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19303</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F956-4908-B573-FAC9977D3D45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>OVH!$B$5:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>NodeJS (pm2 + nginx)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Python (ASGI Uvicorn)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java Temurin Docker</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java Graal Docker</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java Azul Docker</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Java Graal native</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PHP (Nginx + PHP-FPM)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Java Azul native</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Java Temurin native</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bun (Javascript)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Javamini Temurin native</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C# - Controller .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Javamini Graal native</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>C# - Minimal API .NET 9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Rust Actix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OVH!$D$5:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10967</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13620</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3874-4318-8145-57879945029C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1716,21 +1901,34 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:shade val="30000"/>
+            <a:satMod val="115000"/>
+          </a:schemeClr>
         </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
+        <a:gs pos="50000">
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:shade val="67500"/>
+            <a:satMod val="115000"/>
+          </a:schemeClr>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:shade val="100000"/>
+            <a:satMod val="115000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        <a:fillToRect l="100000" b="100000"/>
       </a:path>
-      <a:tileRect/>
+      <a:tileRect t="-100000" r="-100000"/>
     </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3557,7 +3755,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>51874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4291,10 +4489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C568D5-A42A-4923-9916-9948BE1E3A2A}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4330,16 +4528,30 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45961</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D4">
         <v>268</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E20" si="0">$D$21/D4</f>
+        <v>72.026119402985074</v>
+      </c>
+      <c r="F4" t="str">
+        <f>_xlfn.CONCAT(D4," (x",ROUND(E4,2),")")</f>
+        <v>268 (x72,03)</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -4347,21 +4559,37 @@
         <v>45961</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>3159</v>
+        <v>1238</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>15.592084006462036</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F21" si="1">_xlfn.CONCAT(D5," (x",ROUND(E5,2),")")</f>
+        <v>1238 (x15,59)</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>4892</v>
+        <v>3159</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1104779993668883</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>3159 (x6,11)</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -4369,10 +4597,18 @@
         <v>45959</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>5558</v>
+        <v>4892</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9458299264104659</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>4892 (x3,95)</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -4380,21 +4616,37 @@
         <v>45959</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>5702</v>
+        <v>5558</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4730118747750991</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>5558 (x3,47)</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>45961</v>
+        <v>45959</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>6131</v>
+        <v>5702</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3853034023149773</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>5702 (x3,39)</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -4402,10 +4654,18 @@
         <v>45961</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>6442</v>
+        <v>6131</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1484260316424728</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>6131 (x3,15)</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -4413,10 +4673,18 @@
         <v>45961</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>7229</v>
+        <v>6442</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9964296802235331</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>6442 (x3)</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -4424,10 +4692,18 @@
         <v>45961</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>7798</v>
+        <v>7229</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6702171807995572</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>7229 (x2,67)</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -4435,10 +4711,18 @@
         <v>45961</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>10496</v>
+        <v>7798</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.475378302128751</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>7798 (x2,48)</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -4446,10 +4730,18 @@
         <v>45961</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>10967</v>
+        <v>10496</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8390815548780488</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>10496 (x1,84)</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -4457,10 +4749,18 @@
         <v>45961</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>13093</v>
+        <v>10967</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7600984772499315</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>10967 (x1,76)</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -4468,66 +4768,126 @@
         <v>45961</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>13620</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>13093</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4742992438707707</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>13093 (x1,47)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>45961</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>15669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>13620</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4172540381791483</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>13620 (x1,42)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>45961</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>16203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>15669</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2319229050992406</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>15669 (x1,23)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>45961</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>18095</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>16203</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1913225945812504</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>16203 (x1,19)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>45961</v>
       </c>
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>18095</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0667587731417518</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>18095 (x1,07)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>19303</v>
       </c>
+      <c r="E21" s="3">
+        <f>$D$21/D21</f>
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>19303 (x1)</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D20" xr:uid="{09C568D5-A42A-4923-9916-9948BE1E3A2A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D20">
-      <sortCondition ref="D3:D20"/>
+  <autoFilter ref="A3:D21" xr:uid="{09C568D5-A42A-4923-9916-9948BE1E3A2A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D21">
+      <sortCondition ref="D3:D21"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H20">
-    <sortCondition descending="1" ref="D4:D20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H21">
+    <sortCondition descending="1" ref="D4:D21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A738F7-05B0-4C6B-89C8-C315D9828224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B556C0-C5E4-476C-8A4C-D22C3DA9DA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="2" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
@@ -172,13 +172,13 @@
     <t>Python (ASGI Uvicorn)</t>
   </si>
   <si>
-    <t>NodeJS (pm2 + nginx)</t>
-  </si>
-  <si>
     <t>Fastest/line</t>
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>NodeJS (cluster)</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1479,7 @@
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>NodeJS (pm2 + nginx)</c:v>
+                  <c:v>NodeJS (cluster)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Python (ASGI Uvicorn)</c:v>
@@ -1627,7 +1627,7 @@
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>NodeJS (pm2 + nginx)</c:v>
+                  <c:v>NodeJS (cluster)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Python (ASGI Uvicorn)</c:v>
@@ -1687,7 +1687,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1238</c:v>
+                  <c:v>2546</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3159</c:v>
@@ -4489,10 +4489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C568D5-A42A-4923-9916-9948BE1E3A2A}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4529,10 +4529,10 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -4556,21 +4556,21 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>45961</v>
+        <v>45962</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>1238</v>
+        <v>2546</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>15.592084006462036</v>
+        <v>7.5816967792615868</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F21" si="1">_xlfn.CONCAT(D5," (x",ROUND(E5,2),")")</f>
-        <v>1238 (x15,59)</v>
+        <v>2546 (x7,58)</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -4875,6 +4875,12 @@
       <c r="F21" t="str">
         <f t="shared" si="1"/>
         <v>19303 (x1)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D23">
+        <f>D19/D5</f>
+        <v>6.3641005498821679</v>
       </c>
     </row>
   </sheetData>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B556C0-C5E4-476C-8A4C-D22C3DA9DA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47940CD-F384-4AE9-AACB-9758C6736A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="2" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
@@ -1521,10 +1521,10 @@
                   <c:v>Javamini Graal native</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>C# - Minimal API .NET 9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Rust</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Rust Actix</c:v>
@@ -1669,10 +1669,10 @@
                   <c:v>Javamini Graal native</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>C# - Minimal API .NET 9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Rust</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Rust Actix</c:v>
@@ -1723,19 +1723,19 @@
                   <c:v>13093</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13620</c:v>
+                  <c:v>14223</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>15669</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16203</c:v>
+                  <c:v>18466</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18095</c:v>
+                  <c:v>19060</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19303</c:v>
+                  <c:v>25032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,7 +4492,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4547,11 +4547,11 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E20" si="0">$D$21/D4</f>
-        <v>72.026119402985074</v>
+        <v>93.402985074626869</v>
       </c>
       <c r="F4" t="str">
         <f>_xlfn.CONCAT(D4," (x",ROUND(E4,2),")")</f>
-        <v>268 (x72,03)</v>
+        <v>268 (x93,4)</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -4566,11 +4566,11 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>7.5816967792615868</v>
+        <v>9.8318931657501967</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F21" si="1">_xlfn.CONCAT(D5," (x",ROUND(E5,2),")")</f>
-        <v>2546 (x7,58)</v>
+        <v>2546 (x9,83)</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -4585,11 +4585,11 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>6.1104779993668883</v>
+        <v>7.9240265906932574</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>3159 (x6,11)</v>
+        <v>3159 (x7,92)</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -4604,11 +4604,11 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>3.9458299264104659</v>
+        <v>5.1169255928045789</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>4892 (x3,95)</v>
+        <v>4892 (x5,12)</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -4623,11 +4623,11 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>3.4730118747750991</v>
+        <v>4.5037783375314859</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>5558 (x3,47)</v>
+        <v>5558 (x4,5)</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -4642,11 +4642,11 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>3.3853034023149773</v>
+        <v>4.3900385829533501</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>5702 (x3,39)</v>
+        <v>5702 (x4,39)</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -4661,11 +4661,11 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>3.1484260316424728</v>
+        <v>4.0828576088729411</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>6131 (x3,15)</v>
+        <v>6131 (x4,08)</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -4680,11 +4680,11 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>2.9964296802235331</v>
+        <v>3.8857497671530581</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>6442 (x3)</v>
+        <v>6442 (x3,89)</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -4699,11 +4699,11 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>2.6702171807995572</v>
+        <v>3.4627196016046478</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>7229 (x2,67)</v>
+        <v>7229 (x3,46)</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -4718,11 +4718,11 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>2.475378302128751</v>
+        <v>3.2100538599640935</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>7798 (x2,48)</v>
+        <v>7798 (x3,21)</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -4737,11 +4737,11 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>1.8390815548780488</v>
+        <v>2.3849085365853657</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>10496 (x1,84)</v>
+        <v>10496 (x2,38)</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -4756,11 +4756,11 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>1.7600984772499315</v>
+        <v>2.2824838150816085</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>10967 (x1,76)</v>
+        <v>10967 (x2,28)</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -4775,11 +4775,11 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>1.4742992438707707</v>
+        <v>1.911861299931261</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>13093 (x1,47)</v>
+        <v>13093 (x1,91)</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -4790,15 +4790,15 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>13620</v>
+        <v>14223</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>1.4172540381791483</v>
+        <v>1.7599662518456023</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>13620 (x1,42)</v>
+        <v>14223 (x1,76)</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -4813,30 +4813,30 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>1.2319229050992406</v>
+        <v>1.5975493011679112</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>15669 (x1,23)</v>
+        <v>15669 (x1,6)</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>45961</v>
+        <v>45963</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>16203</v>
+        <v>18466</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>1.1913225945812504</v>
+        <v>1.3555724033358605</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>16203 (x1,19)</v>
+        <v>18466 (x1,36)</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -4844,29 +4844,29 @@
         <v>45961</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>18095</v>
+        <v>19060</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>1.0667587731417518</v>
+        <v>1.3133263378803777</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>18095 (x1,07)</v>
+        <v>19060 (x1,31)</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>45961</v>
+        <v>45963</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="D21">
-        <v>19303</v>
+        <v>25032</v>
       </c>
       <c r="E21" s="3">
         <f>$D$21/D21</f>
@@ -4874,13 +4874,13 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>19303 (x1)</v>
+        <v>25032 (x1)</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D23">
         <f>D19/D5</f>
-        <v>6.3641005498821679</v>
+        <v>7.2529457973291436</v>
       </c>
     </row>
   </sheetData>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47940CD-F384-4AE9-AACB-9758C6736A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663E781-51FC-4EFB-B353-CACDB999D98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="2" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ryzen 7" sheetId="1" r:id="rId1"/>
@@ -4492,7 +4492,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4879,8 +4879,8 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D23">
-        <f>D19/D5</f>
-        <v>7.2529457973291436</v>
+        <f>D20/D5</f>
+        <v>7.4862529457973288</v>
       </c>
     </row>
   </sheetData>

--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663E781-51FC-4EFB-B353-CACDB999D98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86D1CDF-7E05-47B7-A530-00FD5E8CDF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Ryzen 7" sheetId="1" r:id="rId1"/>
     <sheet name="i7" sheetId="2" r:id="rId2"/>
     <sheet name="OVH" sheetId="3" r:id="rId3"/>
+    <sheet name="OVH .NET" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OVH!$A$3:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OVH!$A$3:$D$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>node.js</t>
   </si>
@@ -179,6 +180,27 @@
   </si>
   <si>
     <t>NodeJS (cluster)</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>9,0</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>C# - Minimal API .NET 10</t>
+  </si>
+  <si>
+    <t>C# - Controller .NET 10</t>
+  </si>
+  <si>
+    <t>NodeJS (uWebSocket.js)</t>
   </si>
 </sst>
 </file>
@@ -240,11 +262,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1475,9 +1498,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>OVH!$B$5:$B$21</c:f>
+              <c:f>OVH!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>NodeJS (cluster)</c:v>
                 </c:pt>
@@ -1515,18 +1538,21 @@
                   <c:v>Javamini Temurin native</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>C# - Controller .NET 9</c:v>
+                  <c:v>Javamini Graal native</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Javamini Graal native</c:v>
+                  <c:v>C# - Controller .NET 10</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>C# - Minimal API .NET 10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>NodeJS (uWebSocket.js)</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Rust</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>C# - Minimal API .NET 9</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Rust Actix</c:v>
                 </c:pt>
               </c:strCache>
@@ -1534,10 +1560,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OVH!$C$5:$C$21</c:f>
+              <c:f>OVH!$C$5:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1623,9 +1649,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>OVH!$B$5:$B$21</c:f>
+              <c:f>OVH!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>NodeJS (cluster)</c:v>
                 </c:pt>
@@ -1663,18 +1689,21 @@
                   <c:v>Javamini Temurin native</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>C# - Controller .NET 9</c:v>
+                  <c:v>Javamini Graal native</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Javamini Graal native</c:v>
+                  <c:v>C# - Controller .NET 10</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>C# - Minimal API .NET 10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>NodeJS (uWebSocket.js)</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Rust</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>C# - Minimal API .NET 9</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Rust Actix</c:v>
                 </c:pt>
               </c:strCache>
@@ -1682,10 +1711,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OVH!$D$5:$D$21</c:f>
+              <c:f>OVH!$D$5:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2546</c:v>
                 </c:pt>
@@ -1717,25 +1746,28 @@
                   <c:v>10496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10967</c:v>
+                  <c:v>12155</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>13093</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14223</c:v>
+                  <c:v>15669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15669</c:v>
+                  <c:v>18929</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18466</c:v>
+                  <c:v>26587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19060</c:v>
+                  <c:v>27237</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25032</c:v>
+                  <c:v>28635</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,7 +3787,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>51874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4107,12 +4139,12 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4123,7 +4155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4131,7 +4163,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4139,7 +4171,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4153,7 +4185,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4164,7 +4196,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4175,7 +4207,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +4215,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4197,7 +4229,7 @@
         <v>45933</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4211,7 +4243,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4225,7 +4257,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -4239,7 +4271,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4253,7 +4285,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4267,7 +4299,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4281,7 +4313,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4304,12 +4336,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4320,7 +4352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4334,7 +4366,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4348,7 +4380,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4362,7 +4394,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4374,7 +4406,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4388,7 +4420,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4400,7 +4432,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4414,7 +4446,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4426,7 +4458,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4438,7 +4470,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4452,28 +4484,28 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -4489,19 +4521,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C568D5-A42A-4923-9916-9948BE1E3A2A}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4518,7 +4550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4535,7 +4567,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45961</v>
       </c>
@@ -4546,15 +4578,15 @@
         <v>268</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E20" si="0">$D$21/D4</f>
-        <v>93.402985074626869</v>
+        <f t="shared" ref="E4:E21" si="0">$D$22/D4</f>
+        <v>139.96641791044777</v>
       </c>
       <c r="F4" t="str">
         <f>_xlfn.CONCAT(D4," (x",ROUND(E4,2),")")</f>
-        <v>268 (x93,4)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>268 (x139,97)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45962</v>
       </c>
@@ -4566,14 +4598,14 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>9.8318931657501967</v>
+        <v>14.733307148468185</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F21" si="1">_xlfn.CONCAT(D5," (x",ROUND(E5,2),")")</f>
-        <v>2546 (x9,83)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F5:F22" si="1">_xlfn.CONCAT(D5," (x",ROUND(E5,2),")")</f>
+        <v>2546 (x14,73)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45961</v>
       </c>
@@ -4585,14 +4617,14 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>7.9240265906932574</v>
+        <v>11.874327318771764</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>3159 (x7,92)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3159 (x11,87)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45959</v>
       </c>
@@ -4604,14 +4636,14 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>5.1169255928045789</v>
+        <v>7.667825020441537</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>4892 (x5,12)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>4892 (x7,67)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45959</v>
       </c>
@@ -4623,14 +4655,14 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>4.5037783375314859</v>
+        <v>6.7490104354084206</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>5558 (x4,5)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>5558 (x6,75)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45959</v>
       </c>
@@ -4642,14 +4674,14 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>4.3900385829533501</v>
+        <v>6.5785689231848474</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>5702 (x4,39)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>5702 (x6,58)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45961</v>
       </c>
@@ -4661,14 +4693,14 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>4.0828576088729411</v>
+        <v>6.1182515087261455</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>6131 (x4,08)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6131 (x6,12)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45961</v>
       </c>
@@ -4680,14 +4712,14 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>3.8857497671530581</v>
+        <v>5.8228810928283146</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>6442 (x3,89)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6442 (x5,82)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45961</v>
       </c>
@@ -4699,14 +4731,14 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>3.4627196016046478</v>
+        <v>5.1889611287868309</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>7229 (x3,46)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>7229 (x5,19)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45961</v>
       </c>
@@ -4718,14 +4750,14 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>3.2100538599640935</v>
+        <v>4.810335983585535</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>7798 (x3,21)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>7798 (x4,81)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45961</v>
       </c>
@@ -4737,33 +4769,33 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>2.3849085365853657</v>
+        <v>3.5738376524390243</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>10496 (x2,38)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>10496 (x3,57)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45961</v>
+        <v>45973</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="D15">
-        <v>10967</v>
+        <v>12155</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>2.2824838150816085</v>
+        <v>3.0860551213492391</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>10967 (x2,28)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>12155 (x3,09)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45961</v>
       </c>
@@ -4775,125 +4807,239 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>1.911861299931261</v>
+        <v>2.8649660123730238</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>13093 (x1,91)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>13093 (x2,86)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45961</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>14223</v>
+        <v>15669</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>1.7599662518456023</v>
+        <v>2.3939626013146977</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>14223 (x1,76)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>15669 (x2,39)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45961</v>
+        <v>45973</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>15669</v>
+        <v>18929</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>1.5975493011679112</v>
+        <v>1.9816683395847641</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>15669 (x1,6)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>18929 (x1,98)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45963</v>
+        <v>45973</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>18466</v>
+        <v>26587</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>1.3555724033358605</v>
+        <v>1.4108774965208561</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>18466 (x1,36)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>26587 (x1,41)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45961</v>
+        <v>45998</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>19060</v>
+        <v>27237</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>1.3133263378803777</v>
+        <v>1.3772074751257481</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>19060 (x1,31)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>27237 (x1,38)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45963</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>25032</v>
+        <v>28635</v>
       </c>
       <c r="E21" s="3">
-        <f>$D$21/D21</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.3099703160467959</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>25032 (x1)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D23">
-        <f>D20/D5</f>
-        <v>7.4862529457973288</v>
+        <v>28635 (x1,31)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>37511</v>
+      </c>
+      <c r="E22" s="3">
+        <f>$D$22/D22</f>
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>37511 (x1)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>D21/D5</f>
+        <v>11.247054202670856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>24072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>25084</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>24210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>26587</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>19061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D21" xr:uid="{09C568D5-A42A-4923-9916-9948BE1E3A2A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D21">
-      <sortCondition ref="D3:D21"/>
+  <autoFilter ref="A3:D22" xr:uid="{09C568D5-A42A-4923-9916-9948BE1E3A2A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D22">
+      <sortCondition ref="D3:D22"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H21">
-    <sortCondition descending="1" ref="D4:D21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H22">
+    <sortCondition descending="1" ref="D4:D22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6882B9-B2D4-472C-AFC2-B626AA28D26E}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663E781-51FC-4EFB-B353-CACDB999D98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B81C5FB-B6BD-4D9E-B2AD-8806C08A86CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ryzen 7" sheetId="1" r:id="rId1"/>
     <sheet name="i7" sheetId="2" r:id="rId2"/>
     <sheet name="OVH" sheetId="3" r:id="rId3"/>
+    <sheet name="Intel i5" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OVH!$A$3:$D$21</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>node.js</t>
   </si>
@@ -179,6 +180,27 @@
   </si>
   <si>
     <t>NodeJS (cluster)</t>
+  </si>
+  <si>
+    <t>Req/s</t>
+  </si>
+  <si>
+    <t>C++ (uWebSockets)</t>
+  </si>
+  <si>
+    <t>C# (Controller)</t>
+  </si>
+  <si>
+    <t>Rust (Actix)</t>
+  </si>
+  <si>
+    <t>Rust (Tokio)</t>
+  </si>
+  <si>
+    <t>Node (uWebSockets.js)</t>
+  </si>
+  <si>
+    <t>Node (cluster)</t>
   </si>
 </sst>
 </file>
@@ -1959,6 +1981,408 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Debian 13.2 - 4 core - SSD</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Request/second</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> - higher is better</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel i5'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Req/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Intel i5'!$B$4:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Node (cluster)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C# (Controller)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rust (Tokio)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rust (Actix)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Node (uWebSockets.js)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C++ (uWebSockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel i5'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46FC-43B1-A3F6-901ABA6E9C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="387863968"/>
+        <c:axId val="388625104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387863968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388625104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388625104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387863968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2079,6 +2503,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3655,6 +4119,511 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3764,6 +4733,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A2E2AC-BE44-2EC2-608F-9D832949CD0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92868</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA786DA-233A-745B-3E92-17E0C83B94C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4107,12 +5117,12 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4123,7 +5133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4131,7 +5141,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4139,7 +5149,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4153,7 +5163,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4164,7 +5174,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4175,7 +5185,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +5193,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4197,7 +5207,7 @@
         <v>45933</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4211,7 +5221,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4225,7 +5235,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -4239,7 +5249,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4253,7 +5263,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4267,7 +5277,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4281,7 +5291,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4304,12 +5314,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4320,7 +5330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4334,7 +5344,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4348,7 +5358,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4362,7 +5372,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4374,7 +5384,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4388,7 +5398,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4400,7 +5410,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4414,7 +5424,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4426,7 +5436,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4438,7 +5448,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4452,28 +5462,28 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -4491,17 +5501,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C568D5-A42A-4923-9916-9948BE1E3A2A}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4518,7 +5528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4535,7 +5545,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45961</v>
       </c>
@@ -4554,7 +5564,7 @@
         <v>268 (x93,4)</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45962</v>
       </c>
@@ -4573,7 +5583,7 @@
         <v>2546 (x9,83)</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45961</v>
       </c>
@@ -4592,7 +5602,7 @@
         <v>3159 (x7,92)</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45959</v>
       </c>
@@ -4611,7 +5621,7 @@
         <v>4892 (x5,12)</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45959</v>
       </c>
@@ -4630,7 +5640,7 @@
         <v>5558 (x4,5)</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45959</v>
       </c>
@@ -4649,7 +5659,7 @@
         <v>5702 (x4,39)</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45961</v>
       </c>
@@ -4668,7 +5678,7 @@
         <v>6131 (x4,08)</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45961</v>
       </c>
@@ -4687,7 +5697,7 @@
         <v>6442 (x3,89)</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45961</v>
       </c>
@@ -4706,7 +5716,7 @@
         <v>7229 (x3,46)</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45961</v>
       </c>
@@ -4725,7 +5735,7 @@
         <v>7798 (x3,21)</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45961</v>
       </c>
@@ -4744,7 +5754,7 @@
         <v>10496 (x2,38)</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45961</v>
       </c>
@@ -4763,7 +5773,7 @@
         <v>10967 (x2,28)</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45961</v>
       </c>
@@ -4782,7 +5792,7 @@
         <v>13093 (x1,91)</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45961</v>
       </c>
@@ -4801,7 +5811,7 @@
         <v>14223 (x1,76)</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45961</v>
       </c>
@@ -4820,7 +5830,7 @@
         <v>15669 (x1,6)</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45963</v>
       </c>
@@ -4839,7 +5849,7 @@
         <v>18466 (x1,36)</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45961</v>
       </c>
@@ -4858,7 +5868,7 @@
         <v>19060 (x1,31)</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45963</v>
       </c>
@@ -4877,7 +5887,7 @@
         <v>25032 (x1)</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23">
         <f>D20/D5</f>
         <v>7.4862529457973288</v>
@@ -4896,4 +5906,104 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8C67D3-830F-476F-8ABD-D58137F09E04}">
+  <dimension ref="A3:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>13675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>19310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>19929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>24817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>25483</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C9">
+    <sortCondition ref="C4:C9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/illustration.xlsx
+++ b/illustration.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\dev2\AI\maxreq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B81C5FB-B6BD-4D9E-B2AD-8806C08A86CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F205A-E0E2-4580-9C0C-F365D1E56B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{118BFD8F-90CA-4E6C-93EF-A5ACB82B758A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ryzen 7" sheetId="1" r:id="rId1"/>
     <sheet name="i7" sheetId="2" r:id="rId2"/>
     <sheet name="OVH" sheetId="3" r:id="rId3"/>
     <sheet name="Intel i5" sheetId="4" r:id="rId4"/>
+    <sheet name="OVH Comparaison" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Intel i5'!$A$3:$C$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OVH!$A$3:$D$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>node.js</t>
   </si>
@@ -201,6 +203,141 @@
   </si>
   <si>
     <t>Node (cluster)</t>
+  </si>
+  <si>
+    <t>C# (Minimal API)</t>
+  </si>
+  <si>
+    <t>Node (Bun)</t>
+  </si>
+  <si>
+    <t>Java Minimal API (Temurin)</t>
+  </si>
+  <si>
+    <t>Java Springboot (Temurin)</t>
+  </si>
+  <si>
+    <t>Java Springboot (Graal)</t>
+  </si>
+  <si>
+    <t>Java Minimal API (Graal)</t>
+  </si>
+  <si>
+    <t>Java Minimal API (Azul)</t>
+  </si>
+  <si>
+    <t>Java Springboot (Azul)</t>
+  </si>
+  <si>
+    <t>Python (uvicorn)</t>
+  </si>
+  <si>
+    <t>PHP (php-pfm)</t>
+  </si>
+  <si>
+    <t>PHP (frankenphp)</t>
+  </si>
+  <si>
+    <t>rust actix</t>
+  </si>
+  <si>
+    <t>rust tokio</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Java mini Temurin</t>
+  </si>
+  <si>
+    <t>Dependancies</t>
+  </si>
+  <si>
+    <t>C# 10,0 controller</t>
+  </si>
+  <si>
+    <t>Java Spring Temurin</t>
+  </si>
+  <si>
+    <t>Notation 1 = bad, 5 = good</t>
+  </si>
+  <si>
+    <t>node-fast cluster</t>
+  </si>
+  <si>
+    <t>Easy to build, big exe</t>
+  </si>
+  <si>
+    <t>As simple as Python</t>
+  </si>
+  <si>
+    <t>Pure node performance with few C++ lib behind</t>
+  </si>
+  <si>
+    <t>Rely on uWebSockets C++ lib</t>
+  </si>
+  <si>
+    <t>python unicorn</t>
+  </si>
+  <si>
+    <t>Java VM is very sensitive. With some VM I got 100 req/s. pom file are complex</t>
+  </si>
+  <si>
+    <t>Monolithe</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>The best compromise for code simplicity, maintenance, and performance</t>
+  </si>
+  <si>
+    <t>php fpm nginx</t>
+  </si>
+  <si>
+    <t>Debian 13,2</t>
+  </si>
+  <si>
+    <t>Decembre 2025</t>
+  </si>
+  <si>
+    <t>uWebSockets library make it possible. Without it very difficult to get good performances</t>
+  </si>
+  <si>
+    <t>Pure Python, no special optimisations</t>
+  </si>
+  <si>
+    <t>Need Apache or Nginx</t>
+  </si>
+  <si>
+    <t>C# 10.0 minimal API</t>
+  </si>
+  <si>
+    <t>C++ uWebSockets</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Dev platform</t>
+  </si>
+  <si>
+    <t>https://www.ovhcloud.com/en/vps/</t>
+  </si>
+  <si>
+    <t>node PM2</t>
   </si>
 </sst>
 </file>
@@ -210,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,16 +363,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,18 +416,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2155,25 +2341,61 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Intel i5'!$B$4:$B$9</c:f>
+              <c:f>'Intel i5'!$B$4:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>Java Minimal API (Azul)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Java Minimal API (Graal)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Node (cluster)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>Python (uvicorn)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PHP (php-pfm)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PHP (frankenphp)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Java Springboot (Graal)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Java Springboot (Azul)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Java Springboot (Temurin)</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>C# (Controller)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
+                  <c:v>Java Minimal API (Temurin)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Node (Bun)</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Rust (Tokio)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="14">
                   <c:v>Rust (Actix)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="15">
+                  <c:v>C# (Minimal API)</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Node (uWebSockets.js)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>C++ (uWebSockets)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2181,26 +2403,62 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Intel i5'!$C$4:$C$9</c:f>
+              <c:f>'Intel i5'!$C$4:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3587</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>4006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8726</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>13675</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
+                  <c:v>13676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14532</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16995</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>19310</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="14">
                   <c:v>19929</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="15">
+                  <c:v>21726</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>24817</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>25483</c:v>
                 </c:pt>
               </c:numCache>
@@ -2359,6 +2617,479 @@
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>API Requests/second - higher</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> is better</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Debian 13.2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> - 6vCore</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t>OVH VPS-2 - 7.14€/month VAT Included - unlimited traffic</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OVH Comparaison'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>node PM2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>python unicorn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java Spring Temurin</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>php fpm nginx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java mini Temurin</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C# 10,0 controller</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>rust tokio</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>C# 10.0 minimal API</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rust actix</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>node-fast cluster</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>C++ uWebSockets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OVH Comparaison'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17910</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18140</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-010D-46A3-B689-557CD16B89AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="1512552464"/>
+        <c:axId val="1453844560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1512552464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1453844560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1453844560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512552464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2543,6 +3274,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -4624,6 +5395,576 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4765,7 +6106,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>92868</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4774,6 +6115,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA786DA-233A-745B-3E92-17E0C83B94C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAED3905-4317-8D7C-8DB5-207994C88537}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5117,12 +6499,12 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5133,7 +6515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5141,7 +6523,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5149,7 +6531,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5163,7 +6545,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5174,7 +6556,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5185,7 +6567,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5193,7 +6575,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5207,7 +6589,7 @@
         <v>45933</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5221,7 +6603,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5235,7 +6617,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -5249,7 +6631,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5263,7 +6645,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5277,7 +6659,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -5291,7 +6673,7 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5314,12 +6696,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5330,7 +6712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5344,7 +6726,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5358,7 +6740,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5372,7 +6754,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5384,7 +6766,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5398,7 +6780,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5410,7 +6792,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5424,7 +6806,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5436,7 +6818,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5448,7 +6830,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5462,28 +6844,28 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -5502,16 +6884,16 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -5528,7 +6910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5545,7 +6927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45961</v>
       </c>
@@ -5564,7 +6946,7 @@
         <v>268 (x93,4)</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45962</v>
       </c>
@@ -5583,7 +6965,7 @@
         <v>2546 (x9,83)</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45961</v>
       </c>
@@ -5602,7 +6984,7 @@
         <v>3159 (x7,92)</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45959</v>
       </c>
@@ -5621,7 +7003,7 @@
         <v>4892 (x5,12)</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>45959</v>
       </c>
@@ -5640,7 +7022,7 @@
         <v>5558 (x4,5)</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>45959</v>
       </c>
@@ -5659,7 +7041,7 @@
         <v>5702 (x4,39)</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>45961</v>
       </c>
@@ -5678,7 +7060,7 @@
         <v>6131 (x4,08)</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>45961</v>
       </c>
@@ -5697,7 +7079,7 @@
         <v>6442 (x3,89)</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>45961</v>
       </c>
@@ -5716,7 +7098,7 @@
         <v>7229 (x3,46)</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>45961</v>
       </c>
@@ -5735,7 +7117,7 @@
         <v>7798 (x3,21)</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>45961</v>
       </c>
@@ -5754,7 +7136,7 @@
         <v>10496 (x2,38)</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>45961</v>
       </c>
@@ -5773,7 +7155,7 @@
         <v>10967 (x2,28)</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>45961</v>
       </c>
@@ -5792,7 +7174,7 @@
         <v>13093 (x1,91)</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>45961</v>
       </c>
@@ -5811,7 +7193,7 @@
         <v>14223 (x1,76)</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>45961</v>
       </c>
@@ -5830,7 +7212,7 @@
         <v>15669 (x1,6)</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>45963</v>
       </c>
@@ -5849,7 +7231,7 @@
         <v>18466 (x1,36)</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>45961</v>
       </c>
@@ -5868,7 +7250,7 @@
         <v>19060 (x1,31)</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>45963</v>
       </c>
@@ -5887,7 +7269,7 @@
         <v>25032 (x1)</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D23">
         <f>D20/D5</f>
         <v>7.4862529457973288</v>
@@ -5910,19 +7292,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8C67D3-830F-476F-8ABD-D58137F09E04}">
-  <dimension ref="A3:C9"/>
+  <dimension ref="A3:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5933,77 +7315,648 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>13675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45999</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>7164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>13675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>13676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>14532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>16995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C6">
+      <c r="C17">
         <v>19310</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
         <v>45999</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C7">
+      <c r="C18">
         <v>19929</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>21726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
         <v>45999</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C8">
+      <c r="C20">
         <v>24817</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
         <v>45999</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C9">
+      <c r="C21">
         <v>25483</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C9">
-    <sortCondition ref="C4:C9"/>
+  <autoFilter ref="A3:C21" xr:uid="{7E8C67D3-830F-476F-8ABD-D58137F09E04}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C21">
+      <sortCondition ref="C3:C21"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C21">
+    <sortCondition ref="C4:C21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFC7B53-8912-4AF3-8780-0E0D7A1086C2}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>3823</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E14" si="0">$B$15/B4</f>
+        <v>8.9992152759612871</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>4192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>8.2070610687022896</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>6721</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>5.1188811188811192</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>8010</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2951310861423222</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>10993</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>3.1296279450559448</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>12271</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8036834813788607</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>14465</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.3784306947805045</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>17910</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9209380234505862</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>18140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.896582138919515</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>23701</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4515843213366524</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>24364</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4120834017402726</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>34404</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="8">
+        <f>$B$15/B15</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J15">
+    <sortCondition ref="B4:B15"/>
+  </sortState>
+  <conditionalFormatting sqref="G4:G15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:I15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{799D9375-17A0-4047-80DF-B3455C86692F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>